--- a/biology/Zoologie/Eumeces/Eumeces.xlsx
+++ b/biology/Zoologie/Eumeces/Eumeces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eumeces est un genre de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eumeces est un genre de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent de l'Afrique du Nord jusqu'en Inde en passant par le Moyen-Orient, le Caucase et l'Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent de l'Afrique du Nord jusqu'en Inde en passant par le Moyen-Orient, le Caucase et l'Asie centrale.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 novembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 novembre 2017) :
 Eumeces algeriensis Peters, 1864
 Eumeces blythianus (Anderson, 1871)
 Eumeces cholistanensis Masroor, 2009
 Eumeces indothalensis Khan &amp; Khan, 1997
-Eumeces persicus Faizi, N. Rastegar-Pouyani, E. Rastegar-Pouyani, Nazarov, Heidari, Zangi, Orlova &amp; Poyarkov, 2017[3]
+Eumeces persicus Faizi, N. Rastegar-Pouyani, E. Rastegar-Pouyani, Nazarov, Heidari, Zangi, Orlova &amp; Poyarkov, 2017
 Eumeces schneideri (Daudin, 1802)</t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a contenu de nombreuses autres espèces. La classification ayant évolué, la plupart des espèces ont été déplacées dans le genre Plestiodon et quelques-unes dans le genre Mesoscincus.
 </t>
@@ -609,9 +627,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Eumeces, vient du grec εν, « bon », et μηκης, « longueur », soit « d'une bonne longueur »[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Eumeces, vient du grec εν, « bon », et μηκης, « longueur », soit « d'une bonne longueur ».
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Griffith, Ngo &amp; Murphy, 2000 : A cladistic evaluation of the cosmopolitan genus Eumeces Wiegmann (Reptilia, Squamata, Scincidae). Russian Journal of Herpetology, vol. 7, no 1, p. 1-16 (texte intégral).
 Wiegmann, 1834 : Herpetologia mexicana, seu Descriptio amphibiorum Novae Hispaniae quae itineribus comitis De Sack, Ferdinandi Deppe et Chr. Guil. Schiede in Museum zoologicum Berolinense pervenerunt. Pars prima saurorum species amplectens, adjecto systematis saurorum prodromo, additisque multis in hunc amphibiorum ordinem observationibus. Lüderitz, Berlin, p. 1-54 (texte intégral).</t>
